--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_02_thunderplus.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_02_thunderplus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="BBPw5sjxCCUVqKqDFh1VvlGl+6jBsyEv58ubpDIjFduKT4EttifNtZLgNn2j4jGi/bvDsFNRyO0+XWiClC3JHw==" workbookSaltValue="FQsz7bLsuDdqgfH6Nya7QA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6300" windowWidth="28830" windowHeight="6240"/>
+    <workbookView xWindow="-12" yWindow="6300" windowWidth="28836" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
   </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Cherry (Ying) Xu - Personal View" guid="{C632D23E-ABE2-4A5D-999D-B152E21EFF8E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
     <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Cherry (Ying) Xu - Personal View" guid="{C632D23E-ABE2-4A5D-999D-B152E21EFF8E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -852,9 +852,6 @@
     <t>suite_path = 02_thunderplus_basic</t>
   </si>
   <si>
-    <t>PNMAIN_ENABLE_BITGEN=1;QA_TEST_ONLY=1</t>
-  </si>
-  <si>
     <t xml:space="preserve">cmd = python DEV/bin/run_radiant.py  --run-map-trce  --run-par-trce </t>
   </si>
   <si>
@@ -1027,6 +1024,9 @@
   </si>
   <si>
     <t xml:space="preserve">cmd =   --check-conf=sim.conf,impl.conf --check-smart --sim-rtl  --synthesis=lse </t>
+  </si>
+  <si>
+    <t>QA_TEST_ONLY=1</t>
   </si>
 </sst>
 </file>
@@ -2329,64 +2329,31 @@
     <xf numFmtId="49" fontId="12" fillId="7" borderId="7" xfId="13" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2398,7 +2365,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="47" applyBorder="1" applyAlignment="1">
@@ -2418,17 +2391,44 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="48" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="48" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="47" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="47" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="47" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="47" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="47" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -4931,7 +4931,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2D801D4A-7909-4CEE-BE03-CBB72FDF32AB}" diskRevisions="1" revisionId="644" version="13">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D23F07C6-73B5-4D49-9579-53D728FF74DE}" diskRevisions="1" revisionId="645" version="14">
   <header guid="{EF406D44-8062-40DE-A000-69E56EC874B5}" dateTime="2020-10-15T13:42:26" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5036,6 +5036,14 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{D23F07C6-73B5-4D49-9579-53D728FF74DE}" dateTime="2022-05-08T16:25:48" maxSheetId="5" userName="Jason Wang" r:id="rId14" minRId="645">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -5634,6 +5642,23 @@
     <nc r="C16" t="inlineStr">
       <is>
         <t xml:space="preserve">cmd =   --check-conf=sim.conf,impl.conf --check-smart --sim-rtl  --synthesis=lse </t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="645" sId="1">
+    <oc r="B6" t="inlineStr">
+      <is>
+        <t>PNMAIN_ENABLE_BITGEN=1;QA_TEST_ONLY=1</t>
+      </is>
+    </oc>
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>QA_TEST_ONLY=1</t>
       </is>
     </nc>
   </rcc>
@@ -12384,7 +12409,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
   <userInfo guid="{EF406D44-8062-40DE-A000-69E56EC874B5}" name="Cherry (Ying) Xu" id="-707422276" dateTime="2020-11-23T15:52:35"/>
 </users>
@@ -12680,10 +12705,10 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
@@ -12711,7 +12736,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12732,7 +12757,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -12740,7 +12765,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -12748,7 +12773,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -12763,100 +12788,100 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -12867,23 +12892,23 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="B4" sqref="B4"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B23" sqref="B23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{C632D23E-ABE2-4A5D-999D-B152E21EFF8E}">
+      <selection activeCell="F22" sqref="F22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{C632D23E-ABE2-4A5D-999D-B152E21EFF8E}">
-      <selection activeCell="F22" sqref="F22"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B23" sqref="B23"/>
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
@@ -12906,36 +12931,36 @@
       <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" style="2" customWidth="1"/>
     <col min="8" max="8" width="37" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="13" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" style="2" customWidth="1"/>
     <col min="21" max="21" width="11" style="2" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="2" customWidth="1"/>
     <col min="23" max="28" width="9" style="2"/>
-    <col min="29" max="29" width="10.140625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.109375" style="2" customWidth="1"/>
     <col min="30" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="67" t="s">
         <v>15</v>
       </c>
@@ -12971,7 +12996,7 @@
       <c r="AC1" s="70"/>
       <c r="AD1" s="70"/>
     </row>
-    <row r="2" spans="1:30" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:30" s="3" customFormat="1" ht="15.6" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -13063,18 +13088,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" thickTop="1">
+    <row r="3" spans="1:30" ht="15" thickTop="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -13082,13 +13107,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -13096,13 +13121,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -13110,13 +13135,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -13124,13 +13149,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -13138,13 +13163,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -13152,13 +13177,13 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -13166,13 +13191,13 @@
         <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -13180,13 +13205,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -13194,13 +13219,13 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -13208,13 +13233,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -13222,13 +13247,13 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -13236,13 +13261,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -13250,13 +13275,13 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -13264,13 +13289,13 @@
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -13278,13 +13303,13 @@
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:30">
@@ -13292,13 +13317,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -13306,13 +13331,13 @@
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -13320,13 +13345,13 @@
         <v>19</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -13334,13 +13359,13 @@
         <v>20</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -13348,13 +13373,13 @@
         <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -13362,13 +13387,13 @@
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -13376,13 +13401,13 @@
         <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -13390,13 +13415,13 @@
         <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -13404,13 +13429,13 @@
         <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -13418,13 +13443,13 @@
         <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -13432,13 +13457,13 @@
         <v>27</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -13446,13 +13471,13 @@
         <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -13460,13 +13485,13 @@
         <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -13474,13 +13499,13 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -13488,13 +13513,13 @@
         <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -13502,13 +13527,13 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -13516,13 +13541,13 @@
         <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -13530,13 +13555,13 @@
         <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -13544,13 +13569,13 @@
         <v>35</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -13558,13 +13583,13 @@
         <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -13572,13 +13597,13 @@
         <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -13586,13 +13611,13 @@
         <v>38</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -13600,13 +13625,13 @@
         <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -13614,13 +13639,13 @@
         <v>40</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S42" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -13628,60 +13653,60 @@
         <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>257</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="y+CBG6/YKaQ6HsaQYTqaGGAc9K7SdI4KYNN5n42I5k04yiTX0Fn8xQwrYnwNAtl9mwRmr3UcHPCrpySoPgBJNA==" saltValue="2QS/OSgjoJCpqDc5Ec8Idw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AD2"/>
   <customSheetViews>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:Y2"/>
+      <autoFilter ref="A2:AD2"/>
+    </customSheetView>
+    <customSheetView guid="{C632D23E-ABE2-4A5D-999D-B152E21EFF8E}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59:XFD59"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="A2:AD2"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{C632D23E-ABE2-4A5D-999D-B152E21EFF8E}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59:XFD59"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:AD2"/>
-    </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="A2:AD2"/>
+      <autoFilter ref="A2:Y2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -13764,18 +13789,18 @@
       <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="19" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="6" customWidth="1"/>
     <col min="4" max="4" width="15" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="6" customWidth="1"/>
     <col min="6" max="6" width="32" style="6" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -13798,7 +13823,7 @@
     <row r="107" spans="1:14" ht="12.75" customHeight="1"/>
     <row r="108" spans="1:14" ht="12.75" customHeight="1"/>
     <row r="109" spans="1:14" ht="12.75" customHeight="1"/>
-    <row r="110" spans="1:14" ht="15.75" thickBot="1">
+    <row r="110" spans="1:14" ht="15" thickBot="1">
       <c r="A110" s="6" t="s">
         <v>75</v>
       </c>
@@ -13806,7 +13831,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15.75" thickBot="1">
+    <row r="111" spans="1:14" ht="15" thickBot="1">
       <c r="A111" s="9" t="s">
         <v>77</v>
       </c>
@@ -13822,17 +13847,17 @@
       <c r="E111" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F111" s="104" t="s">
+      <c r="F111" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="G111" s="105"/>
-      <c r="H111" s="105"/>
-      <c r="I111" s="105"/>
-      <c r="J111" s="105"/>
-      <c r="K111" s="105"/>
-      <c r="L111" s="105"/>
-      <c r="M111" s="105"/>
-      <c r="N111" s="106"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="74"/>
+      <c r="K111" s="74"/>
+      <c r="L111" s="74"/>
+      <c r="M111" s="74"/>
+      <c r="N111" s="75"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="11" t="s">
@@ -14634,7 +14659,7 @@
       <c r="M141" s="18"/>
       <c r="N141" s="19"/>
     </row>
-    <row r="142" spans="1:14" ht="15.75" thickBot="1">
+    <row r="142" spans="1:14" ht="15" thickBot="1">
       <c r="A142" s="20" t="s">
         <v>116</v>
       </c>
@@ -14658,7 +14683,7 @@
       <c r="M142" s="21"/>
       <c r="N142" s="22"/>
     </row>
-    <row r="145" spans="1:8" ht="15.75" thickBot="1">
+    <row r="145" spans="1:8" ht="15" thickBot="1">
       <c r="A145" s="6" t="s">
         <v>117</v>
       </c>
@@ -14696,7 +14721,7 @@
       <c r="A147" s="26">
         <v>1</v>
       </c>
-      <c r="B147" s="89" t="s">
+      <c r="B147" s="76" t="s">
         <v>3</v>
       </c>
       <c r="C147" s="27" t="s">
@@ -14722,7 +14747,7 @@
       <c r="A148" s="26">
         <v>2</v>
       </c>
-      <c r="B148" s="90"/>
+      <c r="B148" s="77"/>
       <c r="C148" s="28" t="s">
         <v>130</v>
       </c>
@@ -14744,7 +14769,7 @@
       <c r="A149" s="26">
         <v>3</v>
       </c>
-      <c r="B149" s="90"/>
+      <c r="B149" s="77"/>
       <c r="C149" s="28" t="s">
         <v>9</v>
       </c>
@@ -14764,7 +14789,7 @@
       <c r="A150" s="26">
         <v>4</v>
       </c>
-      <c r="B150" s="90"/>
+      <c r="B150" s="77"/>
       <c r="C150" s="28" t="s">
         <v>132</v>
       </c>
@@ -14788,7 +14813,7 @@
       <c r="A151" s="26">
         <v>5</v>
       </c>
-      <c r="B151" s="90"/>
+      <c r="B151" s="77"/>
       <c r="C151" s="27" t="s">
         <v>134</v>
       </c>
@@ -14812,7 +14837,7 @@
       <c r="A152" s="26">
         <v>6</v>
       </c>
-      <c r="B152" s="90"/>
+      <c r="B152" s="77"/>
       <c r="C152" s="27" t="s">
         <v>138</v>
       </c>
@@ -14836,7 +14861,7 @@
       <c r="A153" s="26">
         <v>7</v>
       </c>
-      <c r="B153" s="90"/>
+      <c r="B153" s="77"/>
       <c r="C153" s="28" t="s">
         <v>141</v>
       </c>
@@ -14858,7 +14883,7 @@
       <c r="A154" s="26">
         <v>8</v>
       </c>
-      <c r="B154" s="90"/>
+      <c r="B154" s="77"/>
       <c r="C154" s="27" t="s">
         <v>142</v>
       </c>
@@ -14882,7 +14907,7 @@
       <c r="A155" s="26">
         <v>9</v>
       </c>
-      <c r="B155" s="90"/>
+      <c r="B155" s="77"/>
       <c r="C155" s="27" t="s">
         <v>143</v>
       </c>
@@ -14906,7 +14931,7 @@
       <c r="A156" s="26">
         <v>10</v>
       </c>
-      <c r="B156" s="90"/>
+      <c r="B156" s="77"/>
       <c r="C156" s="28" t="s">
         <v>144</v>
       </c>
@@ -14930,7 +14955,7 @@
       <c r="A157" s="26">
         <v>11</v>
       </c>
-      <c r="B157" s="90"/>
+      <c r="B157" s="77"/>
       <c r="C157" s="28" t="s">
         <v>145</v>
       </c>
@@ -14954,7 +14979,7 @@
       <c r="A158" s="26">
         <v>12</v>
       </c>
-      <c r="B158" s="90"/>
+      <c r="B158" s="77"/>
       <c r="C158" s="28" t="s">
         <v>147</v>
       </c>
@@ -14976,7 +15001,7 @@
       <c r="A159" s="26">
         <v>13</v>
       </c>
-      <c r="B159" s="84"/>
+      <c r="B159" s="78"/>
       <c r="C159" s="28" t="s">
         <v>55</v>
       </c>
@@ -15000,7 +15025,7 @@
       <c r="A160" s="26">
         <v>14</v>
       </c>
-      <c r="B160" s="80" t="s">
+      <c r="B160" s="71" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="28" t="s">
@@ -15026,7 +15051,7 @@
       <c r="A161" s="26">
         <v>15</v>
       </c>
-      <c r="B161" s="79"/>
+      <c r="B161" s="72"/>
       <c r="C161" s="28" t="s">
         <v>155</v>
       </c>
@@ -15050,7 +15075,7 @@
       <c r="A162" s="26">
         <v>16</v>
       </c>
-      <c r="B162" s="89" t="s">
+      <c r="B162" s="76" t="s">
         <v>5</v>
       </c>
       <c r="C162" s="28" t="s">
@@ -15074,7 +15099,7 @@
       <c r="A163" s="26">
         <v>17</v>
       </c>
-      <c r="B163" s="107"/>
+      <c r="B163" s="79"/>
       <c r="C163" s="27" t="s">
         <v>159</v>
       </c>
@@ -15096,7 +15121,7 @@
       <c r="A164" s="26">
         <v>18</v>
       </c>
-      <c r="B164" s="84"/>
+      <c r="B164" s="78"/>
       <c r="C164" s="27" t="s">
         <v>161</v>
       </c>
@@ -15116,7 +15141,7 @@
       <c r="A165" s="26">
         <v>19</v>
       </c>
-      <c r="B165" s="80" t="s">
+      <c r="B165" s="71" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="28" t="s">
@@ -15140,7 +15165,7 @@
       <c r="A166" s="26">
         <v>20</v>
       </c>
-      <c r="B166" s="79"/>
+      <c r="B166" s="72"/>
       <c r="C166" s="28" t="s">
         <v>166</v>
       </c>
@@ -15160,7 +15185,7 @@
       <c r="A167" s="26">
         <v>21</v>
       </c>
-      <c r="B167" s="79"/>
+      <c r="B167" s="72"/>
       <c r="C167" s="28" t="s">
         <v>167</v>
       </c>
@@ -15180,7 +15205,7 @@
       <c r="A168" s="26">
         <v>22</v>
       </c>
-      <c r="B168" s="79"/>
+      <c r="B168" s="72"/>
       <c r="C168" s="28" t="s">
         <v>168</v>
       </c>
@@ -15200,7 +15225,7 @@
       <c r="A169" s="26">
         <v>23</v>
       </c>
-      <c r="B169" s="79"/>
+      <c r="B169" s="72"/>
       <c r="C169" s="28" t="s">
         <v>169</v>
       </c>
@@ -15220,7 +15245,7 @@
       <c r="A170" s="26">
         <v>24</v>
       </c>
-      <c r="B170" s="79"/>
+      <c r="B170" s="72"/>
       <c r="C170" s="28" t="s">
         <v>170</v>
       </c>
@@ -15240,7 +15265,7 @@
       <c r="A171" s="26">
         <v>25</v>
       </c>
-      <c r="B171" s="79"/>
+      <c r="B171" s="72"/>
       <c r="C171" s="28" t="s">
         <v>171</v>
       </c>
@@ -15260,7 +15285,7 @@
       <c r="A172" s="26">
         <v>26</v>
       </c>
-      <c r="B172" s="79"/>
+      <c r="B172" s="72"/>
       <c r="C172" s="28" t="s">
         <v>40</v>
       </c>
@@ -15276,11 +15301,11 @@
       </c>
       <c r="H172" s="16"/>
     </row>
-    <row r="173" spans="1:8" ht="90">
+    <row r="173" spans="1:8" ht="86.4">
       <c r="A173" s="26">
         <v>27</v>
       </c>
-      <c r="B173" s="80" t="s">
+      <c r="B173" s="71" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="28" t="s">
@@ -15304,7 +15329,7 @@
       <c r="A174" s="26">
         <v>28</v>
       </c>
-      <c r="B174" s="79"/>
+      <c r="B174" s="72"/>
       <c r="C174" s="27" t="s">
         <v>175</v>
       </c>
@@ -15326,7 +15351,7 @@
       <c r="A175" s="26">
         <v>29</v>
       </c>
-      <c r="B175" s="79"/>
+      <c r="B175" s="72"/>
       <c r="C175" s="28" t="s">
         <v>178</v>
       </c>
@@ -15348,7 +15373,7 @@
       <c r="A176" s="26">
         <v>30</v>
       </c>
-      <c r="B176" s="89" t="s">
+      <c r="B176" s="76" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="28" t="s">
@@ -15370,11 +15395,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.75" thickBot="1">
+    <row r="177" spans="1:8" ht="15" thickBot="1">
       <c r="A177" s="31">
         <v>31</v>
       </c>
-      <c r="B177" s="90"/>
+      <c r="B177" s="77"/>
       <c r="C177" s="32" t="s">
         <v>183</v>
       </c>
@@ -15398,7 +15423,7 @@
       <c r="A178" s="23">
         <v>32</v>
       </c>
-      <c r="B178" s="91" t="s">
+      <c r="B178" s="80" t="s">
         <v>185</v>
       </c>
       <c r="C178" s="33" t="s">
@@ -15422,7 +15447,7 @@
       <c r="A179" s="26">
         <v>33</v>
       </c>
-      <c r="B179" s="92"/>
+      <c r="B179" s="81"/>
       <c r="C179" s="27" t="s">
         <v>189</v>
       </c>
@@ -15444,7 +15469,7 @@
       <c r="A180" s="26">
         <v>34</v>
       </c>
-      <c r="B180" s="93"/>
+      <c r="B180" s="82"/>
       <c r="C180" s="34" t="s">
         <v>192</v>
       </c>
@@ -15466,7 +15491,7 @@
       <c r="A181" s="31">
         <v>35</v>
       </c>
-      <c r="B181" s="93"/>
+      <c r="B181" s="82"/>
       <c r="C181" s="34" t="s">
         <v>193</v>
       </c>
@@ -15488,7 +15513,7 @@
       <c r="A182" s="31">
         <v>36</v>
       </c>
-      <c r="B182" s="93"/>
+      <c r="B182" s="82"/>
       <c r="C182" s="34" t="s">
         <v>196</v>
       </c>
@@ -15508,7 +15533,7 @@
       <c r="A183" s="31">
         <v>37</v>
       </c>
-      <c r="B183" s="93"/>
+      <c r="B183" s="82"/>
       <c r="C183" s="34" t="s">
         <v>248</v>
       </c>
@@ -15526,11 +15551,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15.75" thickBot="1">
+    <row r="184" spans="1:8" ht="15" thickBot="1">
       <c r="A184" s="35">
         <v>38</v>
       </c>
-      <c r="B184" s="88"/>
+      <c r="B184" s="83"/>
       <c r="C184" s="36" t="s">
         <v>252</v>
       </c>
@@ -15566,7 +15591,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15.75" thickBot="1">
+    <row r="197" spans="1:7" ht="15" thickBot="1">
       <c r="A197" s="6" t="s">
         <v>201</v>
       </c>
@@ -15581,11 +15606,11 @@
       <c r="B198" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C198" s="94" t="s">
+      <c r="C198" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D198" s="94"/>
-      <c r="E198" s="94"/>
+      <c r="D198" s="84"/>
+      <c r="E198" s="84"/>
       <c r="F198" s="39" t="s">
         <v>42</v>
       </c>
@@ -15594,17 +15619,17 @@
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="77" t="s">
+      <c r="A199" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="B199" s="79" t="s">
+      <c r="B199" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="C199" s="96" t="s">
+      <c r="C199" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="D199" s="97"/>
-      <c r="E199" s="97"/>
+      <c r="D199" s="88"/>
+      <c r="E199" s="88"/>
       <c r="F199" s="28" t="s">
         <v>208</v>
       </c>
@@ -15613,13 +15638,13 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="77"/>
-      <c r="B200" s="95"/>
-      <c r="C200" s="98" t="s">
+      <c r="A200" s="85"/>
+      <c r="B200" s="86"/>
+      <c r="C200" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="D200" s="99"/>
-      <c r="E200" s="99"/>
+      <c r="D200" s="90"/>
+      <c r="E200" s="90"/>
       <c r="F200" s="32" t="s">
         <v>209</v>
       </c>
@@ -15628,15 +15653,15 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="77"/>
-      <c r="B201" s="79" t="s">
+      <c r="A201" s="85"/>
+      <c r="B201" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="C201" s="100" t="s">
+      <c r="C201" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="D201" s="100"/>
-      <c r="E201" s="100"/>
+      <c r="D201" s="91"/>
+      <c r="E201" s="91"/>
       <c r="F201" s="28" t="s">
         <v>208</v>
       </c>
@@ -15645,13 +15670,13 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="77"/>
-      <c r="B202" s="79"/>
-      <c r="C202" s="98" t="s">
+      <c r="A202" s="85"/>
+      <c r="B202" s="72"/>
+      <c r="C202" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="D202" s="98"/>
-      <c r="E202" s="98"/>
+      <c r="D202" s="89"/>
+      <c r="E202" s="89"/>
       <c r="F202" s="28" t="s">
         <v>209</v>
       </c>
@@ -15660,15 +15685,15 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="77"/>
-      <c r="B203" s="95" t="s">
+      <c r="A203" s="85"/>
+      <c r="B203" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="C203" s="101" t="s">
+      <c r="C203" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="D203" s="102"/>
-      <c r="E203" s="103"/>
+      <c r="D203" s="93"/>
+      <c r="E203" s="94"/>
       <c r="F203" s="28" t="s">
         <v>208</v>
       </c>
@@ -15677,13 +15702,13 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="77"/>
-      <c r="B204" s="84"/>
-      <c r="C204" s="101" t="s">
+      <c r="A204" s="85"/>
+      <c r="B204" s="78"/>
+      <c r="C204" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="D204" s="102"/>
-      <c r="E204" s="103"/>
+      <c r="D204" s="93"/>
+      <c r="E204" s="94"/>
       <c r="F204" s="28" t="s">
         <v>209</v>
       </c>
@@ -15692,15 +15717,15 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="77"/>
-      <c r="B205" s="79" t="s">
+      <c r="A205" s="85"/>
+      <c r="B205" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="C205" s="100" t="s">
+      <c r="C205" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="D205" s="100"/>
-      <c r="E205" s="100"/>
+      <c r="D205" s="91"/>
+      <c r="E205" s="91"/>
       <c r="F205" s="28" t="s">
         <v>208</v>
       </c>
@@ -15709,13 +15734,13 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="77"/>
-      <c r="B206" s="79"/>
-      <c r="C206" s="100" t="s">
+      <c r="A206" s="85"/>
+      <c r="B206" s="72"/>
+      <c r="C206" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="D206" s="100"/>
-      <c r="E206" s="100"/>
+      <c r="D206" s="91"/>
+      <c r="E206" s="91"/>
       <c r="F206" s="28" t="s">
         <v>209</v>
       </c>
@@ -15724,17 +15749,17 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="77" t="s">
+      <c r="A207" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="B207" s="79" t="s">
+      <c r="B207" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="C207" s="80" t="s">
+      <c r="C207" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D207" s="79"/>
-      <c r="E207" s="79"/>
+      <c r="D207" s="72"/>
+      <c r="E207" s="72"/>
       <c r="F207" s="28" t="s">
         <v>208</v>
       </c>
@@ -15743,13 +15768,13 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="77"/>
-      <c r="B208" s="79"/>
-      <c r="C208" s="79" t="s">
+      <c r="A208" s="85"/>
+      <c r="B208" s="72"/>
+      <c r="C208" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="D208" s="79"/>
-      <c r="E208" s="79"/>
+      <c r="D208" s="72"/>
+      <c r="E208" s="72"/>
       <c r="F208" s="28" t="s">
         <v>209</v>
       </c>
@@ -15758,15 +15783,15 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="77"/>
-      <c r="B209" s="79" t="s">
+      <c r="A209" s="85"/>
+      <c r="B209" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="C209" s="79" t="s">
+      <c r="C209" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D209" s="79"/>
-      <c r="E209" s="79"/>
+      <c r="D209" s="72"/>
+      <c r="E209" s="72"/>
       <c r="F209" s="28" t="s">
         <v>208</v>
       </c>
@@ -15775,13 +15800,13 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="77"/>
-      <c r="B210" s="79"/>
-      <c r="C210" s="79" t="s">
+      <c r="A210" s="85"/>
+      <c r="B210" s="72"/>
+      <c r="C210" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="D210" s="79"/>
-      <c r="E210" s="79"/>
+      <c r="D210" s="72"/>
+      <c r="E210" s="72"/>
       <c r="F210" s="28" t="s">
         <v>209</v>
       </c>
@@ -15790,17 +15815,17 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="77" t="s">
+      <c r="A211" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="B211" s="79" t="s">
+      <c r="B211" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="C211" s="80" t="s">
+      <c r="C211" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="D211" s="79"/>
-      <c r="E211" s="79"/>
+      <c r="D211" s="72"/>
+      <c r="E211" s="72"/>
       <c r="F211" s="28" t="s">
         <v>208</v>
       </c>
@@ -15809,13 +15834,13 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="77"/>
-      <c r="B212" s="79"/>
-      <c r="C212" s="79" t="s">
+      <c r="A212" s="85"/>
+      <c r="B212" s="72"/>
+      <c r="C212" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="D212" s="79"/>
-      <c r="E212" s="79"/>
+      <c r="D212" s="72"/>
+      <c r="E212" s="72"/>
       <c r="F212" s="28" t="s">
         <v>209</v>
       </c>
@@ -15824,15 +15849,15 @@
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="77"/>
-      <c r="B213" s="79" t="s">
+      <c r="A213" s="85"/>
+      <c r="B213" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="C213" s="80" t="s">
+      <c r="C213" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="D213" s="79"/>
-      <c r="E213" s="79"/>
+      <c r="D213" s="72"/>
+      <c r="E213" s="72"/>
       <c r="F213" s="28" t="s">
         <v>208</v>
       </c>
@@ -15840,14 +15865,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A214" s="78"/>
-      <c r="B214" s="81"/>
-      <c r="C214" s="81" t="s">
+    <row r="214" spans="1:7" ht="15" thickBot="1">
+      <c r="A214" s="96"/>
+      <c r="B214" s="97"/>
+      <c r="C214" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="D214" s="81"/>
-      <c r="E214" s="81"/>
+      <c r="D214" s="97"/>
+      <c r="E214" s="97"/>
       <c r="F214" s="36" t="s">
         <v>209</v>
       </c>
@@ -15874,7 +15899,7 @@
       <c r="D217" s="37"/>
       <c r="E217" s="37"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" thickBot="1">
+    <row r="218" spans="1:7" ht="15" thickBot="1">
       <c r="A218" s="6" t="s">
         <v>225</v>
       </c>
@@ -15882,16 +15907,16 @@
       <c r="D218" s="37"/>
       <c r="E218" s="37"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" thickBot="1">
+    <row r="219" spans="1:7" ht="15" thickBot="1">
       <c r="A219" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="B219" s="82" t="s">
+      <c r="B219" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="C219" s="82"/>
-      <c r="D219" s="82"/>
-      <c r="E219" s="82"/>
+      <c r="C219" s="98"/>
+      <c r="D219" s="98"/>
+      <c r="E219" s="98"/>
       <c r="F219" s="46" t="s">
         <v>227</v>
       </c>
@@ -15903,12 +15928,12 @@
       <c r="A220" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="B220" s="83" t="s">
+      <c r="B220" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="C220" s="84"/>
-      <c r="D220" s="84"/>
-      <c r="E220" s="84"/>
+      <c r="C220" s="78"/>
+      <c r="D220" s="78"/>
+      <c r="E220" s="78"/>
       <c r="F220" s="49" t="s">
         <v>105</v>
       </c>
@@ -15920,12 +15945,12 @@
       <c r="A221" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="B221" s="85" t="s">
+      <c r="B221" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="C221" s="86"/>
-      <c r="D221" s="86"/>
-      <c r="E221" s="87"/>
+      <c r="C221" s="101"/>
+      <c r="D221" s="101"/>
+      <c r="E221" s="102"/>
       <c r="F221" s="15" t="s">
         <v>62</v>
       </c>
@@ -15937,12 +15962,12 @@
       <c r="A222" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B222" s="85" t="s">
+      <c r="B222" s="100" t="s">
         <v>233</v>
       </c>
-      <c r="C222" s="86"/>
-      <c r="D222" s="86"/>
-      <c r="E222" s="87"/>
+      <c r="C222" s="101"/>
+      <c r="D222" s="101"/>
+      <c r="E222" s="102"/>
       <c r="F222" s="18" t="s">
         <v>62</v>
       </c>
@@ -15954,12 +15979,12 @@
       <c r="A223" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B223" s="88" t="s">
+      <c r="B223" s="83" t="s">
         <v>235</v>
       </c>
-      <c r="C223" s="81"/>
-      <c r="D223" s="81"/>
-      <c r="E223" s="81"/>
+      <c r="C223" s="97"/>
+      <c r="D223" s="97"/>
+      <c r="E223" s="97"/>
       <c r="F223" s="21" t="s">
         <v>62</v>
       </c>
@@ -15970,12 +15995,12 @@
     <row r="224" spans="1:7">
       <c r="C224" s="51"/>
     </row>
-    <row r="226" spans="1:7" ht="15.75" thickBot="1">
+    <row r="226" spans="1:7" ht="15" thickBot="1">
       <c r="A226" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="15.75" thickBot="1">
+    <row r="227" spans="1:7" ht="15" thickBot="1">
       <c r="A227" s="9" t="s">
         <v>237</v>
       </c>
@@ -16004,11 +16029,11 @@
       <c r="C228" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D228" s="76" t="s">
+      <c r="D228" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="E228" s="76"/>
-      <c r="F228" s="76"/>
+      <c r="E228" s="95"/>
+      <c r="F228" s="95"/>
       <c r="G228" s="57"/>
     </row>
     <row r="229" spans="1:7">
@@ -16021,11 +16046,11 @@
       <c r="C229" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D229" s="75" t="s">
+      <c r="D229" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="E229" s="75"/>
-      <c r="F229" s="75"/>
+      <c r="E229" s="107"/>
+      <c r="F229" s="107"/>
       <c r="G229" s="41"/>
     </row>
     <row r="230" spans="1:7">
@@ -16038,11 +16063,11 @@
       <c r="C230" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D230" s="75" t="s">
+      <c r="D230" s="107" t="s">
         <v>239</v>
       </c>
-      <c r="E230" s="75"/>
-      <c r="F230" s="75"/>
+      <c r="E230" s="107"/>
+      <c r="F230" s="107"/>
       <c r="G230" s="41"/>
     </row>
     <row r="231" spans="1:7">
@@ -16055,11 +16080,11 @@
       <c r="C231" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D231" s="75" t="s">
+      <c r="D231" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="E231" s="75"/>
-      <c r="F231" s="75"/>
+      <c r="E231" s="107"/>
+      <c r="F231" s="107"/>
       <c r="G231" s="41"/>
     </row>
     <row r="232" spans="1:7">
@@ -16072,11 +16097,11 @@
       <c r="C232" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D232" s="75" t="s">
+      <c r="D232" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="E232" s="75"/>
-      <c r="F232" s="75"/>
+      <c r="E232" s="107"/>
+      <c r="F232" s="107"/>
       <c r="G232" s="41"/>
     </row>
     <row r="233" spans="1:7">
@@ -16089,11 +16114,11 @@
       <c r="C233" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D233" s="75" t="s">
+      <c r="D233" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="E233" s="75"/>
-      <c r="F233" s="75"/>
+      <c r="E233" s="107"/>
+      <c r="F233" s="107"/>
       <c r="G233" s="41"/>
     </row>
     <row r="234" spans="1:7">
@@ -16106,11 +16131,11 @@
       <c r="C234" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D234" s="71" t="s">
+      <c r="D234" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="E234" s="72"/>
-      <c r="F234" s="73"/>
+      <c r="E234" s="104"/>
+      <c r="F234" s="105"/>
       <c r="G234" s="43"/>
     </row>
     <row r="235" spans="1:7">
@@ -16123,11 +16148,11 @@
       <c r="C235" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D235" s="71" t="s">
+      <c r="D235" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="E235" s="72"/>
-      <c r="F235" s="73"/>
+      <c r="E235" s="104"/>
+      <c r="F235" s="105"/>
       <c r="G235" s="43"/>
     </row>
     <row r="236" spans="1:7">
@@ -16140,11 +16165,11 @@
       <c r="C236" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D236" s="71" t="s">
+      <c r="D236" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="E236" s="72"/>
-      <c r="F236" s="73"/>
+      <c r="E236" s="104"/>
+      <c r="F236" s="105"/>
       <c r="G236" s="43"/>
     </row>
     <row r="237" spans="1:7">
@@ -16215,7 +16240,7 @@
       <c r="F240" s="64"/>
       <c r="G240" s="43"/>
     </row>
-    <row r="241" spans="1:7" ht="15.75" thickBot="1">
+    <row r="241" spans="1:7" ht="15" thickBot="1">
       <c r="A241" s="65">
         <v>44118</v>
       </c>
@@ -16225,34 +16250,57 @@
       <c r="C241" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D241" s="74" t="s">
+      <c r="D241" s="106" t="s">
         <v>255</v>
       </c>
-      <c r="E241" s="74"/>
-      <c r="F241" s="74"/>
+      <c r="E241" s="106"/>
+      <c r="F241" s="106"/>
       <c r="G241" s="44"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ap+vydlQsTivses2kTOZJOfe+E+ofk18ovQVkbwX/cy/2QzQqNYlkd6ZRwhTqYv60tXLJj9O4rjHfeOPlaqbDA==" saltValue="NIz07f4XZ+x9XJy8gC1img==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{C632D23E-ABE2-4A5D-999D-B152E21EFF8E}" scale="115" topLeftCell="A172">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115" topLeftCell="A172">
       <selection activeCell="C180" sqref="C180"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="115" topLeftCell="A172">
+    <customSheetView guid="{C632D23E-ABE2-4A5D-999D-B152E21EFF8E}" scale="115" topLeftCell="A172">
       <selection activeCell="C180" sqref="C180"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B172"/>
+    <mergeCell ref="D235:F235"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="D241:F241"/>
+    <mergeCell ref="D229:F229"/>
+    <mergeCell ref="D230:F230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="D232:F232"/>
+    <mergeCell ref="D233:F233"/>
+    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="C214:E214"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="A207:A210"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="C210:E210"/>
     <mergeCell ref="B176:B177"/>
     <mergeCell ref="B178:B184"/>
     <mergeCell ref="C198:E198"/>
@@ -16269,35 +16317,12 @@
     <mergeCell ref="B205:B206"/>
     <mergeCell ref="C205:E205"/>
     <mergeCell ref="C206:E206"/>
-    <mergeCell ref="A207:A210"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="D228:F228"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="C214:E214"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="D235:F235"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="D241:F241"/>
-    <mergeCell ref="D229:F229"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="D233:F233"/>
-    <mergeCell ref="D234:F234"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="B147:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -16311,7 +16336,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -16320,18 +16345,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
-      <selection activeCell="E26" sqref="E26"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{C632D23E-ABE2-4A5D-999D-B152E21EFF8E}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{C632D23E-ABE2-4A5D-999D-B152E21EFF8E}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
